--- a/src/dataset/Answers.xlsx
+++ b/src/dataset/Answers.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">Question 1</t>
   </si>
@@ -52,13 +52,293 @@
     <t xml:space="preserve">Status 5</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm not sure there is any direct evidence that it was strategically a bad idea. Strategically it made sense to attack the Soviet Union while they were weak and unprepared for war. Hitler knew that as he made progress on the Western front that Stalin grew more and more nervous every day about the growing power of Nazi Germany.  What must be remembered is that Hitler almost won the war with the Soviet Union. Hitler felt the army was not moving fast enough towards Moscow. If Hitler's commanders had done what Hitler had wanted, which was rush as fast to Moscow as possible, then it is possible the Soviet Union would have fallen without time to prepare a massive infantry army. Germany's army was also not prepared for fighting in cold weather. It was not expected that the Soviet Union was even close to capable of fighting back. The Soviet Union's army was in shambles throughout the entire war. It was ill-equipped and all it had to offer was quantity over quality.  The combination of the cold, unexpected resistance and the amount of time it was taking to get to Moscow because of cold weather and resistance was setting back Germany. The whole strategy was to get in and occupy Moscow and take the leadership. It took about six months for the Germans to get nearly to the gates of Moscow, when the tide finally started to turn at Stalingrad. Hitler most importantly underestimated the sheer will of the the country to defend itself no matter how much the cost in blood. The Soviet Union lost a whopping 13.5% of its population to the war.  So in short, strategically a lot of it made sense at the time. The operation was blundered because the blitzkrieg was not fast enough, the underestimation of the kind of force the Soviet Union could pull together and an underestimation of the cold winter. The plan was also delayed because of setbacks in the Balkans and helping the Italians out where they had failed.  It's hard to find actual strategic proof of what was going on through Hitler's mind and his advisors to take on this risky operation. We do know however that these had been a part of Hitler's plans for years. In my opinion, it was probably thought at the time the odds were in Nazi Germany's favor. In all reality, the Germans had a pretty good chance of winning the war within six months, perhaps if just a few variables had changed they might have actually pulled it off. If they could have gotten there a month earlier, they probably would have won.  Also Great Britain was absolutely in no position to put up any kind of resistance except for the occasional bombing run, which was producing much larger losses than they could keep up with equipment wise.  Also Stalin and Hitler were not real allies, they only had a non-aggression pact, and both were not exactly known to be trustworthy. Stalin was also at many times gullible and Hitler took advantage of this diplomatically. Even when warned that Germany was going to invade, Stalin dismissed his advisers.  Taking in all these factors, the thought probably never occurred to Hitler and his officers that the Soviet Union would ever be able to launch any kind of counter attack. It took quite some time and the United States to intervene for the Soviet Union to really begin its successful counter-offensive. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">By this time, Germany controlled the entire European peninsula, and it was very hard to see the Allied forces coming back from that.  Hitler told one of his generals in June 1940 that the victories in western Europe "finally freed his hands for his important real task: the showdown with Bolshevism" [from here].  Reasons to attack the Soviet Union include:  Because having a massive military power right next door when you're fighting a war a thousand kilometers away made Germany nervous. To exterminate Communism Capture oil fields and other strategic resources. Lebensraum, or "living space", a core ideology of the Nazis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany always wanted to attack and defeat Soviet Russia. There is an ideological battle between fascism and communism. Germany really thought that Russia was the enemy of the world. Some Germans believed, such was the evil of communism, that when they started the eastern front, the English would come over to their side to fight communism rather than continue fighting.  The western front was secure. Invasion of England was off the cards, but equally a counter invasion by England was thought unlikely, and at that time it was not possible for England to counter-attack in Europe. There was some expectation that the English would make a deal for the status quo in the west and not fight on further.  Russia was getting stronger. Every month delayed saw Russia prepare better, building more tanks, more airplanes and stockpiling arms. Any delay would have made the war in the east more difficult. Russia knew a major war was coming, either with Germany or Japan, and it had been working as fast as it could to rebuild its armies.  Germany expected the war in the East to be quick and decisive, just as the wars in central Europe and the West had been. They did not expect to be pulled deep into Russia and into the winter of Russia. They also made mistakes in strategy during the advance that meant that they couldn't achieve the goals that would ensure a quick victory, but they were sidetracked.  Russia contained significant resources of oil, coal, gas, steel, etc. Germany needed these to continue its war efforts. Without securing Russian resources, Germany could have been starved out. </t>
+    <t xml:space="preserve">The tearing of the eyes is a result of enzymes that form a sulpherous gas when the onion is cut (concentrated inside the inner core or bulb of the onion) being released into the surrounding air.  You have a few options to avoid this - one would be to not cut through the center of the onion but to extract the "core". This is kind of a pain and means you are discarding a decent chunk of onion, so I don't like it too much.  Another option is to use a fan to blow the gases away from you. A small fan next to you blowing horizontally should do the trick.  You could also wear goggles, although you'd have to leave them on for a while until the gas dissipates from the area.  Another technique is to cut a lemon in half and rub the fresh lemon against both sides of the blade. You'll have to keep "refreshing" the juice coat and your onions will have some lemon juice on them, so this is somewhat limited by that factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The salt adds flavor, but it also helps reduce the gelatinization of the starch in the pasta. The starch in food is the form of microscopic grains. When these grains come into contact with water, they will trap some of it (think cornstarch in cold water), but when the water is hot they swell up like balloons and merge with each other, and you have starch gelatinization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah, kick that up to a half hour and I think you'll be much happier with the results. Don't forget to rest the steaks for 10 min after cooking, too, particularly for thick cuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even with a whole bulb, break it into cloves.  Put clove(s) on a cutting board. I usually cut off the root end of each clove. Lay a large chef's knife flat on the clove, then smack the knife to crush the clove. This breaks the skin of the clove and makes it much easier to peel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian here :) I know that the oil is a well known trick everywhere ... but Italy. The main problem about pasta is that people just tend to cook it too much. The cooking time for pasta should be between 8 and 12 minutes, above this number it will be sticky. Spaghetti is the quickest kind of pasta to get ready, so just cook it around 8-9 minutes and it won't stick.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't comment directly due to rep limit, but I'm not sure Ryan Elkins above is correct. I'm fairly certain both allinase and LFS are found throughout the layers, though the "core" might contain a higher concentration. Certainly there's no gas contained in the central bulb.  There's a couple of basic strategies for avoiding eye irritation:  Avoid breaking cell walls: use a sharp knife The enzymes and amino acids involved in producing the Onion Lachrymatory Factor (seriously!) are normally contained in the cells, and only become a problem when released in volume. Using a sharper knife will avoid mangling cell walls, creating more clean separations between layers, and reducing the amount of enzymes released.  Slow down the reaction: refrigerate/freeze the onion I would guess the activity of both enzymes involved here peaks somewhere around room temperature, or maybe a little higher. You want to get out of this optimum range: either freeze the onion, or heat it beyond denaturation. The former is probably way more practical, since heating to denaturation will leave a soggy mess instead of an onion. You may also be able to deactivate the allinase by substantially altering the pH, for example by coating your knife in lye (not recommended) or lemon juice.  Avoid the reaction products: cut underwater or ventilate The OLF and the reaction intermediaries look to be fairly water soluble, so cutting under running water should take care of them with sufficient flow rate.  I'm not sure what the mechanism behind the common candle suggestion is, OLF is a thial oxide and not very flammable. My best guess is that the rising air draws some of the irritant up and away from the area, but in that case a fan should work much better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another thing you may want to add to the pasta water is some acid (lemon or cream of tartar). Tap water in most cities is made alkaline, which increases the starch loss from the pasta to the water, making the pasta stickier.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should be able to get a reasonable steak stovetop using a cast iron grill pan, if you have a strong enough exhaust. Oil the cast iron pan (with canola or such), then heat it very hot, until it starts to smoke. Make sure the meat is completely dry on the outside (wipe with a paper towel, water will prevent browning) and gently place in the pan. Leave it there for a minute or two (it'll smoke quite a bit!), rotate 90° to get the nice grill marks. Leave for another minute or two. Flip, and repeat for the other side.  It may splatter, have a splatter screen handy. It will smoke, quite a bit, make sure the exhaust is on high.  You will probably have a medium-rare steak now. Using a thinner cut will make it more well done (you can cut a thick steak in half with your chef's knife, making two thin steaks); so will plopping it in the oven (not sure if you want the oven before or after searing, I like 'em medium rare...).  Remember to let the meat rest for 5 minutes or so before serving.  Also, if your steaks are coming out ridiculously tough, you're probably using the wrong cut of meat, or some terrible grade. What cut are you using?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure to NOT use a ceramic knife. It can easily break. –  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooks Illustrated ran an article on this a long time ago. Their trick, which I used regularly with great success for fresh pasta is to use lots of water. For a pound of pasta they used four quarts of water. They also added salt to the water, but no oil. Oil changes nothing but the flavor. Stir during cooking also to help prevent any sticking.  If you are working with fresh pasta that has been coated with flour while making it to prevent the fresh pasta from sticking to itself, make sure to rinse your pasta after cooking while in the colander to prevent it from becoming a gluey mass.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best thing to do is very simple: use a very sharp knife and cut them quickly. This causes a minimal amount of the gases in the onions to be released.  As for "tricks", I find that placing a candle by the cutting board to burn off some of the gases released helps for me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It means that the pasta is seasoned as it is cooked. To see if this matters to you, cook up some pasta in plain water and then some in salted water and see if you can taste the difference.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You loosely touch one of your fingers with your thumb depending on how well done you want it, and the tension of the muscle of your hand below the thumb will be the same as how the meat should feel when you press it.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a tip to go along with this...don't store the garlic in the refrigerator...keeping it out helps keep the garlic peel dry enough to separate easily from the garlic when slightly crushed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best advice I have is to not overcook it. I used to overcook my pasta way past al dente. If the pasta doesn't have a slight chew to it when you strain it, you've cooked it too long. The pasta turns mushy once its past al dente causing it to stick to itself.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stick it in the freezer for half an hour first. I just discovered this by accident (I went to get bacon out of the freezer and absent-mindedly put the onion I was holding in the freezer at the same time!) Alternatively, you can put it in the refrigerator, but that's slower, and if you leave it there too long the flavor mellows. Either way, you're making the problematic compound less volatile, so less will end up in the air to irritate your eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The addition of salt has at least 2 things going for it:  It does help keep the pasta from cooking into water, thus improving texture (less sticky/gummy). When less of the starch and protein is leached out of the pasta, it will foam less as well! (Perform the 2 batch test, side by side. The salted water will foam less, and it will be less murky when the cooking is done)  It does improve the flavour (at least for most of us). Just don't go crazy with the salt, and you'll be fine!  Yes, you can omit the salt, and you can acidify the water, but neither will produce a finished product that I'd care to eat.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, let the meat warm to about room temperature. This way you aren't trying to heat up a cold center. Personally I prefer to only cook each side once (meaning I only flip the meat over once). The actual temperature of your grill and the amount of time you cook it per side will depend on the thickness of the steak and how you want it done. Don't use a fork or knife to cut it open while it is grilling as this will let the juices out.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trick is that you're bruising the clove of garlic a little bit so the paper will release easier -- if you're using a bulb or less, it's not too bad to do the side of the knife press method.  ... but if you're cooking up a recipe that calls for a dozen heads, there's an alternate trick:  break the head into cloves put the cloves into a sealable hard-sided container much larger (10x or more) than the garlic shake the hell out of it for about 15-30 seconds pull out the cloves, and the paper should come off easily. if there's any cloves that are still difficult, shake longer, or more vigorously. repeat for the remaining bulbs. You can do this with two metal bowls of the same size, pressing together the lip on the rims while shaking. I don't recommend plastic containers, as you might impart a garlic flavor to them that will be difficult to remove.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If my spaghetti has been sitting in the colander (usually in the sink) and has begun to stick, I just turn the hot tap on a bit and stir it up. Seems to unstick it easily enough.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut near an open flame (e.g. from a gas stove) use a very sharp knife See Good Eats Moment - Cutting an Onion  As per my father (addendum):  make sure the onions are cold hang a piece of bread from your mouth. I've never tried it, but according to him it works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personally, I add salt to water to reduce the bubbling while the water is boiling and allows me to walk away from the pot for a minute. I hate it when the pot bubbles over and some water falls over the sides of the pot. Something about the salt changes the waters ability to create bubbles. This is just my observation.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An important part of the process missed by the other answers is allowing the meat to rest for up to ten minutes before before serving (depending on size).  This is because at temperature the muscle fibres have tightened up and are unable to retain their juices. A steak straight off the heat and cut open will instantly lose all its juices.  If you allow the steak to cool for a few minutes then the muscle fibres relax, hold the juices better and you end up with a much juicer steak with more flavour.  Resting meat is a very important part of the cooking process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I take a hint from TV (and my fiancee): smash each clove with the flat part of the knife until the skin breaks, then you can easily take it off.  If you are peeling the whole clove, then you can just smash the whole thing with the flat part of a bigger knife (safety first) and take all the goodies out.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have to add oil, either your pasta is not good enough or you are cooking for too long. Use Barilla if you can.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicing onions is the act that takes the most time and cutting and so it likely to cause the most tearing. Here is my technique, and I can dice literally 15 onions before my eyes start to tear up.  Cut the onion in half, laying the cut sides down. This will keep the gases from escaping while you gut the first half.  Slice long longitudinal cuts, leaving the slices attached near he root.  Finish your dice with lateral cuts.  Put the diced onions in a bowl about 2 feet away.  The trick here is to leave the second half cut side down while you work with the first half. It makes all the difference.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As has been mentioned, whether you add salt or not it is for taste. Salt will decrease the amount of time to boil, but only if used in significant quantity. 80% water 20% salt will only increase the boiling point of the water 4 degrees. The same volume of straight water will take longer to boil for the simple fact there is more water.  Pasta sticking is in large part due to the water itself. Most tap water is leans to the alkaline side of the chart. Adding some vinegar or lemon juice to water to raise its acidity will keep the pasta from sticking. How much? You'll have to experiment.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I let my steak rest for about 50% of the cooking time. So if I have a whole steak, I cook it in the oven, and let it rest for half the time it's been in the oven. In my opinion a steak don't have to be scolding hot, and it's better to let it rest a little longer then a little shorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smash the head, put it all (if you need a whole head of garlic) in a large metal bowl, put another metal bowl on top, but upside down, so that the rims overlap, and shake hard for several seconds.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may add a little oil (olive) to the boiling water, and just keep stirring the spaghetti while it boils. Oil will stick to the pasta while boiling and keep it from sticking, but the most important thing is the stirring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I chop them in half, then run them under the tap, then finish them off. (You can also rinse or soak it after just peeling, but it works better with the cut surface.)
+This seems to get rid of most of the crying-chemical for long enough for me to finish anyway.
+If you want it to work better, you can also try to keep the knife and your hands wet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have found that adding salt to pasta water helps the pasta hold the water when it comes in contact with the salt in the sauce. When the pasta was not cooked in salted water it weeps when sauce is served on top of undressed pasta. Dont know why? Just an observation.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here is the method I use for turning out a perfect steak every time.  Pick a quality piece of meat that is approximately 1.5 inches(almost 4cm) thick. Let it sit on the counter-top for 30-45 minutes until it is roughly room temperature. Heat up a cast-iron skillet (or similar) to medium-high. Lightly coat the skillet with an oil that has a high smoke point (grapeseed or coconut oil). Preheat the oven to 500F(260C). Also, put a cookie sheet in the oven during this step too (preferably one that can handle high heat without warping). I like to put a light rub of olive oil on the meat. Then I season it with salt &amp; pepper or garlic salt &amp; pepper (depending on mood). Use TONGS (not a fork) to put the steak into the skillet. Sear each side for 90 seconds. Don't go longer than this. Use the tongs to transfer the steak to the cookie sheet in the oven. Cook each side in the oven for 3 minutes. Place the steak on a plate, put a tablespoon of butter on top of it, and cover it with tin foil. Let it rest for 5-8 minutes. Steak should now be medium rare (about 135F(57C) at center). Serve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two methods that work great.  1: Put the garlic cloves into lukewarm water and wait 20-30 minutes.  2: Put the garlic cloves into a tupperware and shake.  I'd use method one for peeling large batches of garlic that you can store in the fridge for a couple of weeks, and method two for immediate use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twist the bunch of spaghetti slightly before putting it into the boiling the water. This way they will fall apart and do not stick together.  Also stir the pasta in the first two minutes of cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any method that does not physically prevent the gasses released from the onion from entering your eye simply will not work. The crying is the result of irritation from a chemical reaction when the gasses released by a cut onion interact with your tears (I believe the reaction creates small amounts of sulfuric acid, but don't quote me on that). So you either need a physical barrier around your eyes that keeps the gasses out, or some sort of chemical barrier that will react with the gasses before they reach your eye and therefore prevent them from reacting with your tears.  Of the various answers presented here, the only ones that would seem to have any chance of actually being successful are goggles, a fan (that moves the gasses away from you before they get to your eyes), or possibly an open flame. Of those three, the goggles are the only sure-fire way, as the movement of air is difficult to predict and control.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I guess it's like trying to sear a meat over a very high heat; the higher the temperature of the water the faster the pasta gets cook (so that it doesn't absorb too much which will expand the starch contain in the pasta) meanwhile leaving the center a a tiny white dot which creates a snap when bend. Besides that I too believe besides adding flavor to the pasta, by adding olive oil to the pasta is to avoid pasta from being stick together like a lump meanwhile stirring them to ensure equal heat is all over the pasta that is being cook. Olive oil to helps to coat the pasta which will reduce the water absorbtion and in the same time increase the water temperature even more higher.  The water doesn't need to be salty like totally salty but by just adding enough salt just enough for tasting will be good enough.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's how I grill a steak:  Let it thaw completely before attempting to cook it. Set the grill to medium/high heat. Clean the grill by putting an onion on a skewer and using that to clean the bars. It adds flavor and gets the bars clean for a clean cook. For an average thickness steak, I throw it on the grill, close the cover, wait 6 minutes. (closing the cover is very important as it allows the steak to get enough heat. Check for grill marks on the bottom side, if they are there, flip. Grill for 6 minutes on the other side with the cover closed. Use a meat thermometer to check the temp of the meat. Medium is around 140 Fahrenheit (60 Celsius). Using thermometers makes cooking a science! Enjoy! I left out any seasoning or marinating, because this is just how to COOK a steak, not flavor it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to keep the cloves whole, there's a nifty little tool that looks like a piece of rubber manicotti, which is specially designed for this purpose. You put a clove of garlic inside, then roll it back and forth on the counter. The clove will pop out the end completely stripped of its skin.  If you don't feel like going out and buying a one-use gadget, a silicone baking mat will probably do the same thing.  If you're going to be chopping the garlic, I find that slicing the garlic in half from base to tip makes it very easy to peel the skin off.  I don't like smashing garlic with my knife for fear of losing a finger. Safety first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it has to do with the region.I made sauce and spaghetti last night and you could cut it like cake.I went back home to Texas last Oct and made spaghetti there, it was loose and not sticky.For me I say it is the altitude,humidity or who knows? Update: I just tried something else that worked very well for me.I cooked a serving of spaghetti noodles for 2 that turned out just right.It came to me that our city water is so bad that we have our drinking water delivered every month so may be it is the water.So.I used bottled water to make a batch using a cheaper brand of pasta.It turned out beautifully,separate and not sticky at all.I let it cool down and it is still just right.I solved my sticky problem and hope it would work for anyone else that needs help.I guess it is the region in a way because we have good water where I am from in Texas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting them underwater is a little difficult but is the best technique I have tried
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am really surprised that there was no answer above relating to the simple fact that adding even half a teaspoon salt to the boiling water serves this purpose:  the sodium helps fill water molecules, which... reduces the transfer of vitamins, especially B-vitamins from noodles into the cooking water... which then gets thrown out as one drains the boiled noodles along with all those vitamins in that water. That's also why I have stopped rinsing the boiled noodles, which washes off and leaches out more vitamins down the sink-drain.  If you drain noodles after boiling and don't want them to stick together, just run a Stick of butter very fast through the whole batch, which immediately improves the flavor, or put your thumb almost totally over the top of a bottle of first-pressed olive oil, and sprinkle a teaspoon or so over that batch of noodles and stir fast.  I have thereby never had any problems of sticky lumps, when stored in the refrigerator, and I have preserved a better level of nutrition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One thing restaurants commonly do that no one has mentioned yet is to grill the steak until it looks right on the outside, then stick it in the oven until it's "done". There's a good chance your grill is just too hot to get the steak perfect.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather than the "smash" method, I cut a little off each end of the clove and then slice the clove in half, lengthwise. Once it is sliced, the skin peels off easily. Plus, the cut allows for the (2) slices to lay flat for mincing.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just cook the pasta a couple minutes later. I can't think of a sauce that couldn't sit there for a couple of minutes while the pasta finishes, should you mess up the timing. Even reduced cream sauces, you can always add a little pasta water should the sauec over-thicken.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One I think is worth mentioning is to cut the onions under water. I've also read that putting the onions in water for 30 minutes before cutting also helps. Both of these methods would help reduce the compounds that are released when chopping and stop them from going after your eyes :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is actually to help the pasta absorb water.. it's done with meat chicken fish also..  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, cooking on a very high heat is appropriate only if you want the meat browned on the outside but very rare ("almost totally raw", as the questioner puts it) on the inside. Since this is evidently not what the questioner wants, the first thing to do is to turn down the heat. This will take you a long way towards a great steak: salt both sides just before cooking, and fry on a medium heat in a pan with just a drop of oil. Time depends on thickness of the steak.  Second, as Ian Turner points out, turning frequently (once per minute is good) improves the evenness of cooking (and no, it does not dry out the meat). This is also mentioned in McGee's On Food and Cooking (p. 156), which everyone on this site should own. I find that to get good browning with this method you need a higher heat - and the turning means you don't get the burnt-on-the-outside-raw-on-the-inside problem.  Finally, always rest your meat - five minutes should do for a steak, 10 won't hurt in a warm environment. This evens out the internal temperature and hence evens out the "doneness".  You can test how well done it is either by cutting it open to see (the juice you lose is only local to the cut and won't affect the rest of the meat), or, after some experience, you can tell by touching and feeling how firm the meat it. It's worth practising this touch method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The side of the garlic clove closest to the core will usually have a flatish edge where the skin is thicker - if you slice at the base of the clove with the flat side down, and then rotate the knife 90 degrees, you will pull off this thick edge off easier, and frequently this will also take the rest of the skin with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many home cooks use a pot far too small for the quantity of pasta they cook. You should cook the noodles so they can swim freely, at least 5 qts per pound of pasta. Also, overcooking noodles makes them sticky and then stick to each other after draining.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simply breathe only through your nose. Do not talk or open your mouth while chopping. I never cry when chopping onions anymore and haven't in years. I think the bread thing is just a way to keep your mouth closed. (Same goes for holding water or a spoon or a match in your mouth, or chewing gum.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aside from the flavor implications of adding salt, salty water has a higher boiling point than pure water, so you can cook whatever you are boiling at a higher temperature. The more salt, the higher the boiling point, up to the limit of a fully saturated solution.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One approach I've taken from Heston Blumenthal is to keep turning the steak every 20 or 30 seconds. That way the heat travels into the steak a bit more evenly.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The technique I use is just a little different from the "crush" method - I like to think of it as the "smack" method. It goes a little faster because you don't need to shift your hands on the knife very much.  After separating a clove, you place it flat on the cutting board and slice off the stem with a chef knife. Having sliced off the stem, you don't really need to "crush" the garlic to get the skin to separate - holding the knife normally by the handle, you can simply give the garlic one good smack with the flat of the tip, pick up the clove by the tail end, and poke it a bit with the knife and the garlic will fall out.  Optionally, something that I personally find easier is not to slice all the way when you are cutting off the stem. If you slice gently and lift up on the clove at the same time, when the knife reaches the skin on the opposite side, it doesn't penetrate the hard skin. The knife keeps the skin pinned down, and as you pull up on the clove, the skin will start to separate. This gives it a good start and makes the garlic part with its skin even more readily.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Believe it or not, this is what works for me:  Put the DRY pasta into a bowl with a trickle of olive oil and stir it in order to spread the oil. Proceed to boil the pasta as usual (add it when the water is boiling).  The idea is that first the oil will prevent the pasta from sticking to itselt and by the time the hot water removes the oil coat from the pasta, it will be half boiled and will not stick anymore.  The upside is that you hardly have to stir it while it's boiling. In fact, I don't stir it at all. I leave it boiling in the kitchen and come back after 10 minutes to drain it.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As implied in some other answers, you want to cut the onion with as few cuts as possible so you are releasing as little of these gases as possible. You want clean cuts.  Your blade should be sharp. Dull knifes will tear open more of the onion and release more gases Use a straight blade. Serrated blades tear and grate and release far more of these gases Less motion is better. If you use a hand-held knife or a mechanical chopper that goes straight down, this is much better than using a rotating saw like some restaurants and delis use. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The saltier the water the less water gets pulled in by the pasta. Adding salt will keep your pasta nice and firm and not too bloated. That is also why you should never drink distilled water in Chemistry class. The exact opposite will happen, since there are no Salts in distilled water, your cells having a higher salt level will pull in all the water literally making them pop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn your heat down and leave it on the grill longer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try microwaving a clove for between 5-10 seconds and the skin practically falls off. Be careful not to leave them in too long, they'll explode and you'll have a garlicy mess in your microwave.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually add just a tablespoon of my sauce to the pasta.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn to cut onions faster. Seriously. Unless you're working in a restaurant kitchen and will have to chop more than a dozen (or hundred) of onions, you should be able to chop it fast enough and store them or cook them right away. Then take a few steps back until the gas dissipates from the cutting area.  If I have several to do, I peel them all and cut them in half. Then I do all the chopping at once. You don't need to be a knife master. Just good enough and have a good knife.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you have a well-seasoned sauce, it doesn't matter if the water is salted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my go to method:  Lightly season your steaks on all sides with olive oil, coarse sea salt and black pepper and let stand at room temp at least 15 mins-20 mins dry heat a heavy cast iron grill pan if you have one or use a regular pan over high heat Open fan &amp; windows (seriously) in a regular pan: add steaks and cook 3 mins on 1st side then 3 To 4 mins on 2nd side - you may need to lower temp a little watch the steaks closely. if using a griddled cast iron pan: 2 mins per side then flip them 180 degrees (to get a nice criss-cross pattern) and do 1 more min per side let the steaks stand for 5 minutes, during which time you can prepare an anchovy rosemary 'butter': heat a small pan over medium with 1/4 cup olive oil and 8 anchovies and push them around a little until they mostly dissolve in the oil (about 4 mins) then add some finely ciseled rosemary for 30 secs or until fragrant. Spoon over your steaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lay down a knife horizontaly on the cloves and hit it. This will break the clove a bit. Now cut the top, and then the bottom and the shell will be gone.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One more thought: if you are making your own fresh pasta, be fairly generous in the amount of flour you toss it in while it is waiting around before you boil it. This will dry out the surface a bit and reduce sticking when you add it to the pot. Shake off most of the excess flour before adding it to the pot.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For me, wearing contact lenses works perfectly. I can cut onions as much as I like in them, and never cry. It works with all soft contact lenses  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don't salt. If you use copious amount of water and stir occasionally, you should be fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long to cook a steak depends on the thickness as well as the type of cut. Tougher cuts need longer cooking time, and thicker cuts need longer cooking time and a cooler pan. I use an android app called BB Meat Master for reference on cuts and times.  One thing to check for is whether your steak is aged or not. Some countries (France, for example) do not allow beef to be aged, or it is harder to get. Steak that is not aged does not cook the same way, it gets dry if you cook it very long at all, which is why in France they never cook it beyond blue. Ask your butcher if the meat you get is aged, or if it is available.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut the end at both sides and down the middle to peel them.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ust follow these recommendations (Italian here):  Choose a well-known brand of Pasta. Use a big pot with a lot of water, this is really important. Stir pasta for a couple of minutes after pouring it in the hot water. DO NOT put lemon juice please. DO NOT put oil please. Cook it with the proper timing (ex: 8 minutes for spaghetti). Don't go blindly, use your tooth to feel the "al dente" thing. Drain your pasta. Please, DO NOT put your pasta under hot water. Don't drain your pasta dry, but leave a little bit of hot water when you drain it. Add virgin oil or sauces (not mandatory but I recommend it). Add Parmesan (not mandatory but I recommend it, not for all kind of sauces though). Pasta is ready and looks pretty yummy. Bonus advice: If you need to add sauces that need to be warmed, you could cook your pasta "al dente" and finish its cooking with your sauces inside a big pan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep your face away from the onion. Seriously! If you just move your head so it isn't directly above the onion when you cut it, the gasses that would normally go into your eyes won't and you won't cry. One way to do this is simply to sit down.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starch gelation is by far the primary reason, flavour is a side effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another thing that you should pay attention too is to not season the meat before cooking it, but after, right when you take it out of the pan, so the salt will melt on the meats juices. If you use salt before you start cooking it, the salt will tend to extract water from the meat and dry it out.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way I peel garlic is really easy - and somehow not covered in previous answers.  it's easy to tug off the fine, papery skin from the garlic cloves - and it's usually necessary to separate the cloves in the first place.  As for the harder inner skin - at the base of the clove, where it attached into the roots, there's a dry, hard flat place, usually triangle shaped. Usually there are ridges around the edges of this base, pointing downwards. What I do is dig in my nail to the bottom of the clove (just enough to break the skin) and peel upward. The ridge makes a good hold, and the peel breaks and peels a strip off the inner skin.  Three tugs (one on each face of the garlic) has peeled most of the inner skin right off, in less than five seconds - and sometimes it takes less, if the inner skin can be tugged loose in a larger piece, or the garlic slipped out of the skin.  I find this works perfectly with roasted garlic, just dig in my thumbnail and pry upward two or three times and the whole skin is off. Fresh garlic might take a little more rubbing and scraping at left behind strands, but it works basically the same way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You really don't need oil to keep your pasta from sticking.  The water that you used to cook in has a lot of starch in it from the pasta. When you go to drain your pasta, you can reserve a small bit of the water you cooked your pasta in. When the time comes to serve, simply pour and stir the reserved water over the sitting pasta. Not only does this help prevent stickiness, but it also warms your pasta again after sitting for 5-6 minutes, or however long you wait to serve your meal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a gadget that chops it for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also notice that the pasta will only absorb so much salt. This is nice because it means you can never add too much. Any remaining salt will go out with the water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time and temperature vary on the thickness of the steak, but the key is to avoid continuously turning the steak as it dries it out and makes it tough.  For about an inch thick steak, I find that 3-4 minutes each side is enough for a nicely medium steak, but as I said, only ever turn once.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break the bulb into cloves, breaking off the bottom and the dry stick that goes up the middle. For each clove, press the ridge that would have been at the centre of the bulb down hard on the chopping board, crushing it. This causes the skin to almost entirely separate from the clove; using a knife at the base it then comes off very easily, you can peel the whole bulb this way in a few tens of seconds.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After draining it, mix in a little oil, that should prevent it from sticking.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I worked at subway we had to cut all kinds of onions. This is what worked for us:  Wet a paper towel, fold it (hot dog style), and place it under your eyes and over your nose. You have to make sure you don't lean down too much or the towel obviously falls off. Also, it helps to have a large nose.  Then, if we either neglected to do that, or we simply had to cut too many of them, stepping inside the walk in freezer for just 30 seconds kind of re-sets your tears and buys you another 5 minutes or so of tear free cutting.  Obviously most people don't have a walk in freezer, but i imagine sticking your face in a normal one will work equally as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I believe adding salt does raise the boiling point but it also reduces the amount of energy needed to raise the temperature of the water. Ultimately it makes basically no difference although if anything the same quantity of salt water will boil before unsalted water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Alain Ducasse method is a great method for cooking steak on a stove-top. The idea is to cook the steak at a lower heat for a longer period of time.  Start with a 1.5 inch thick cut of beef such as rib-eye. On medium, heat a thick stainless or cast-iron sauté or fry-pan. Place steak standing up in the pan with the fat side down. Do not add oil or butter. Cook standing up until fat has rendered. This should take 5 to 10 minutes. Place steak flat side down to cook in the rendered beef fat. Salt, and cook until brown for 10 minutes. Flip steak over and salt remaining side. Add a few tablespoons of butter to the pan. Continuously spoon butter over steak and cook for 10 minutes. Optionally adding a few sprigs of thyme on top of the steak and one or two crushed garlic cloves to the pan. Rest steak for half as long as the cooking time, about 10-15 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After you have broken it down into cloves, I usually smash it slightly with my thumb or the side of a knife, and the tough peel (the shell) cracks, making it quite easy to simply peel it by hand.  My wife uses this device that is basically a rubber cylinder that you roll the clove in and it breaks down the shell. It works OK, but I can clove for clove peel quicker than anyone I know ;--)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use a little olive oil in the water, and it is not full of calories. In fact Evoo is good fat. Next if you want the pasta sauce to stick to the pasta, keep a bit of the pasta water after, drain it and pour back in the water and mix in sauce. Also, the pasta that is pre-packaged in the deli section is major easy to cook. Boil the water, when it boils you'll add the pasta. Usually it cooks really fast. Just watch it, and certain ones will boil and lay on top of the water. Done. Taste is also the best way. Happy Cooking, Ciao!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My mother suffers terribly when chopping onions. Her solution is to chop them outdoors. It happens that there's a waist-height coal scuttle a couple of paces from the kitchen door, so she does it on that.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With higher boiling point, food cooks faster. But it is mostly inapplicable in case of pasta due to cooking time not significantly long enough, and amount of salt is too little to increase the boiling point anyway. If boiling point is the objective, using pressurized cooker would be better. Then again, the pasta might get smashed into soup in such</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure to properly prep your steak. Trim it of exterior fat and pat it completely dry to provide a nice carmelized crust. Salt and pepper to taste.  One way of achieving perfect steaks that are cooked to your desired temperature without a grey layer between the outer crust and the inner pink (or red) meat is to use your oven. Preheat to 375 degrees F (~190 C). Place steaks on a wire rack over a glass baking dish and add to oven. Bake for 6-8 minutes. This heats the steaks through to avoid the ugly grey line.  Remove steaks. Turn on broiler to high and move racks so steaks will be 1 1/2 inches from broiler when re-inserted (for getting a good crust on them). Let steaks rest while broiler preheats for 10 minutes. Add steaks. Turn every 3 minutes until they reach desired done-ness, 6-16 minutes for medium-rare depending on steak thickness.  A good guide on thickness is: for 1" steaks, pre-bake 6 minutes and flip every 2 minutes. For 1½" steaks, pre-bake 8 minutes and flip every 3 minutes. For 2" steaks, pre-bake 10 minutes and flip every 4 minutes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do it two different ways: First, if I've been working outdoors a lot and have good calluses on my hands, I'll take a scant palm full of cloves and rub my hands together with the garlic between them over the sink or bin, this takes off most of the skin and loosens what stays behind. Second, if the garlic has large cloves, will hold the bottom and the top of the clove, top by one hand bottom by the other and twist the clove, this loosens the skin.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In looking at this question again, it's specifically about dealing with the pasta being done before the sauce is.  The easiest technique is just to pull the pasta a minute or two before it's fully cooked, and then finish it the last few minutes in with the sauce, which will help to re-warm it, too.  If the sauce is already done, and you've fully cooked the pasta, but need to hold them both for a while, you can also just toss a little bit of sauce in with the pasta to help to lubricate it. It doesn't take a whole lot, just enough to coat the strands lightly, not so much that you'd leave it dripping in sauce.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My secret: Let someone else cut it for me. Works every time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because of the bubbling effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I'm not grilling on the charcoal grill, I basically do the rec above by Jeff Judge.  The other thing is that I always marinade the steaks before cooking. It can be as simple as salt, pepper and garlic. But can also include ingredients such as brown sugar, soy sauce, olive oil and a variety of spices.  On the charcoal grill what I do is this. 1. Prepare the coals so that all are evenly hot. 2. I move all the coals to one side of the grill. 3. The steaks start out on the "coal" side. Approximately 1 minute on each side of the steaks to sear. 4. I then move the steaks to the side with no coals below and close the cover on the grill. They stay here 4 - 8 minutes depending on the doneness desired. 5. Then they come off of the grill and rest for ~5 minutes. 6. Time to eat!  One last thing is to always use tongs and not a fork to handle the cooking steaks. You don't want to pierce them and let the tasty juices out.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I generally microwave garlic cloves (as suggested by nachito above). 3-5 cloves 12 seconds works for me. Alternatively you can heat a pan and put cloves in it for a few minutes just to heat them up. That will separate the skin easily.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add oil, it's unnecessary and just adds fat to your pasta. A better solution is to fix your timing issues by cooking the pasta later. Put the water on to boil before your sauce is done, but don't actually put the pasta in until the sauce is ready to go. Then, lower the heat on the sauce to keep it warm as the pasta cooks (which is only about 8 to 12 minutes, depending on the thickness and cut).  I also add a small amount of sauce to the pasta before serving it, which helps keep things loose once I've plated.  Additionally, as with most things, price makes a difference. Getting higher quality pasta will have an effect on the stickiness of the end product.  </t>
   </si>
 </sst>
 </file>
@@ -73,6 +353,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +375,7 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +431,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,15 +454,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,46 +506,609 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/dataset/Answers.xlsx
+++ b/src/dataset/Answers.xlsx
@@ -20,36 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve">Question 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Status 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Question 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Status 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Question 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Status 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Question 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Status 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Question 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status 5</t>
   </si>
   <si>
     <t xml:space="preserve">The tearing of the eyes is a result of enzymes that form a sulpherous gas when the onion is cut (concentrated inside the inner core or bulb of the onion) being released into the surrounding air.  You have a few options to avoid this - one would be to not cut through the center of the onion but to extract the "core". This is kind of a pain and means you are discarding a decent chunk of onion, so I don't like it too much.  Another option is to use a fan to blow the gases away from you. A small fan next to you blowing horizontally should do the trick.  You could also wear goggles, although you'd have to leave them on for a while until the gas dissipates from the area.  Another technique is to cut a lemon in half and rub the fresh lemon against both sides of the blade. You'll have to keep "refreshing" the juice coat and your onions will have some lemon juice on them, so this is somewhat limited by that factor.</t>
@@ -454,20 +439,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="112.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,628 +470,328 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
